--- a/templates/community/TRR341_Phenotyping/Study_Characteristics_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Characteristics_TRR341_MIAPPE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/community/TRR341_Phenotyping/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\TRR341_Phenotyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6502EF4-CEC9-9940-B400-BE2F3FCF45F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA0658A-1AFE-40A6-AC6E-65575CC9CF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17640" yWindow="-17680" windowWidth="26780" windowHeight="15640" tabRatio="811" xr2:uid="{424F8DC5-9123-44F6-A765-1A524B13497E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="811" activeTab="1" xr2:uid="{424F8DC5-9123-44F6-A765-1A524B13497E}"/>
   </bookViews>
   <sheets>
     <sheet name="Characteristics" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Source Name</t>
   </si>
@@ -208,9 +208,6 @@
     <t xml:space="preserve">phenotyping </t>
   </si>
   <si>
-    <t>plant</t>
-  </si>
-  <si>
     <t xml:space="preserve"> metadata </t>
   </si>
   <si>
@@ -239,6 +236,15 @@
   </si>
   <si>
     <t>Coordinator Plant Cultivation and Phenotyping Platform Project Z2</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C14258</t>
+  </si>
+  <si>
+    <t>NCIT</t>
   </si>
 </sst>
 </file>
@@ -385,7 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -418,10 +424,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -533,9 +542,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -573,7 +582,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -679,7 +688,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -821,7 +830,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -847,151 +856,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE7241A-8737-48AF-B2FB-D7E6F97ACD00}">
-  <dimension ref="A1:TZ2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
-    <col min="5" max="5" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31.33203125" customWidth="1"/>
-    <col min="10" max="10" width="38.5" customWidth="1"/>
+    <col min="10" max="10" width="38.44140625" customWidth="1"/>
     <col min="11" max="11" width="73" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32" customWidth="1"/>
     <col min="13" max="13" width="39" customWidth="1"/>
-    <col min="14" max="14" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="42.44140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="32" customWidth="1"/>
     <col min="16" max="16" width="39" customWidth="1"/>
     <col min="17" max="17" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="32" customWidth="1"/>
     <col min="19" max="19" width="39" customWidth="1"/>
-    <col min="20" max="20" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.83203125" customWidth="1"/>
+    <col min="20" max="20" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.77734375" customWidth="1"/>
     <col min="22" max="22" width="38.33203125" customWidth="1"/>
     <col min="23" max="23" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="30.33203125" customWidth="1"/>
     <col min="25" max="25" width="36.6640625" customWidth="1"/>
     <col min="26" max="26" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.5" customWidth="1"/>
+    <col min="27" max="27" width="32.44140625" customWidth="1"/>
     <col min="28" max="28" width="10.6640625" customWidth="1"/>
-    <col min="29" max="29" width="29.1640625" customWidth="1"/>
+    <col min="29" max="29" width="29.109375" customWidth="1"/>
     <col min="30" max="30" width="32.33203125" customWidth="1"/>
-    <col min="31" max="31" width="31.5" customWidth="1"/>
-    <col min="32" max="32" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.1640625" customWidth="1"/>
+    <col min="31" max="31" width="31.44140625" customWidth="1"/>
+    <col min="32" max="32" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.109375" customWidth="1"/>
     <col min="34" max="34" width="25.6640625" customWidth="1"/>
-    <col min="35" max="35" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="36" max="37" width="10.6640625" customWidth="1"/>
-    <col min="38" max="38" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="39" max="40" width="10.6640625" customWidth="1"/>
-    <col min="41" max="41" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="42" max="43" width="10.6640625" customWidth="1"/>
-    <col min="44" max="44" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="45" max="46" width="10.6640625" customWidth="1"/>
-    <col min="47" max="47" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="48" max="49" width="10.6640625" customWidth="1"/>
-    <col min="50" max="50" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="51" max="52" width="10.6640625" customWidth="1"/>
-    <col min="53" max="53" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="54" max="55" width="10.6640625" customWidth="1"/>
-    <col min="56" max="56" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="57" max="58" width="10.6640625" customWidth="1"/>
-    <col min="59" max="59" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="60" max="61" width="10.6640625" customWidth="1"/>
-    <col min="62" max="62" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="63" max="64" width="10.6640625" customWidth="1"/>
-    <col min="65" max="65" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="15.6640625" customWidth="1"/>
     <col min="67" max="67" width="10.6640625" customWidth="1"/>
-    <col min="68" max="68" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="15.6640625" customWidth="1"/>
     <col min="70" max="70" width="18.6640625" customWidth="1"/>
-    <col min="71" max="71" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="22.83203125" customWidth="1"/>
+    <col min="71" max="71" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="22.77734375" customWidth="1"/>
     <col min="73" max="73" width="18.6640625" customWidth="1"/>
-    <col min="74" max="74" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="32.5" customWidth="1"/>
-    <col min="76" max="76" width="22.83203125" customWidth="1"/>
-    <col min="77" max="77" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="31.83203125" customWidth="1"/>
-    <col min="79" max="79" width="32.5" customWidth="1"/>
-    <col min="80" max="80" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="32.44140625" customWidth="1"/>
+    <col min="76" max="76" width="22.77734375" customWidth="1"/>
+    <col min="77" max="77" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="31.77734375" customWidth="1"/>
+    <col min="79" max="79" width="32.44140625" customWidth="1"/>
+    <col min="80" max="80" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="25.33203125" customWidth="1"/>
-    <col min="82" max="82" width="31.83203125" customWidth="1"/>
-    <col min="83" max="83" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="31.77734375" customWidth="1"/>
+    <col min="83" max="83" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="85" max="85" width="25.33203125" customWidth="1"/>
     <col min="86" max="86" width="10.6640625" customWidth="1"/>
-    <col min="87" max="87" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="89" max="90" width="10.6640625" customWidth="1"/>
-    <col min="91" max="91" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="92" max="93" width="10.6640625" customWidth="1"/>
-    <col min="94" max="94" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="95" max="96" width="10.6640625" customWidth="1"/>
-    <col min="97" max="97" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="98" max="99" width="10.6640625" customWidth="1"/>
-    <col min="100" max="100" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="101" max="102" width="10.6640625" customWidth="1"/>
-    <col min="103" max="103" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="104" max="105" width="10.6640625" customWidth="1"/>
-    <col min="106" max="106" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="107" max="108" width="10.6640625" customWidth="1"/>
-    <col min="109" max="109" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="110" max="111" width="10.6640625" customWidth="1"/>
-    <col min="112" max="112" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="113" max="114" width="10.6640625" customWidth="1"/>
-    <col min="115" max="115" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="116" max="117" width="10.6640625" customWidth="1"/>
-    <col min="118" max="118" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="119" max="120" width="10.6640625" customWidth="1"/>
-    <col min="121" max="121" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="122" max="123" width="10.6640625" customWidth="1"/>
-    <col min="124" max="124" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="125" max="125" width="32" customWidth="1"/>
     <col min="126" max="126" width="10.6640625" customWidth="1"/>
-    <col min="127" max="127" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="22.83203125" customWidth="1"/>
+    <col min="127" max="127" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="22.77734375" customWidth="1"/>
     <col min="129" max="129" width="10.6640625" customWidth="1"/>
-    <col min="130" max="130" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="32.5" customWidth="1"/>
+    <col min="130" max="130" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="32.44140625" customWidth="1"/>
     <col min="132" max="132" width="33" customWidth="1"/>
-    <col min="133" max="133" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="31.83203125" customWidth="1"/>
+    <col min="133" max="133" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="31.77734375" customWidth="1"/>
     <col min="135" max="135" width="32.6640625" customWidth="1"/>
-    <col min="136" max="136" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="137" max="137" width="25.33203125" customWidth="1"/>
     <col min="138" max="138" width="33" customWidth="1"/>
-    <col min="139" max="139" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="140" max="140" width="29.33203125" customWidth="1"/>
     <col min="141" max="141" width="33" customWidth="1"/>
-    <col min="142" max="143" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="142" max="143" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="144" max="144" width="33" customWidth="1"/>
     <col min="145" max="145" width="40" customWidth="1"/>
-    <col min="146" max="146" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="34.83203125" customWidth="1"/>
+    <col min="146" max="146" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="34.77734375" customWidth="1"/>
     <col min="148" max="148" width="36.33203125" customWidth="1"/>
-    <col min="149" max="149" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="33.83203125" customWidth="1"/>
-    <col min="151" max="151" width="34.83203125" customWidth="1"/>
+    <col min="149" max="149" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="33.77734375" customWidth="1"/>
+    <col min="151" max="151" width="34.77734375" customWidth="1"/>
     <col min="152" max="152" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="153" max="153" width="29" customWidth="1"/>
-    <col min="154" max="154" width="33.83203125" customWidth="1"/>
+    <col min="154" max="154" width="33.77734375" customWidth="1"/>
     <col min="155" max="155" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="35.1640625" customWidth="1"/>
+    <col min="156" max="156" width="35.109375" customWidth="1"/>
     <col min="157" max="157" width="29" customWidth="1"/>
     <col min="158" max="158" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="159" max="159" width="32.6640625" customWidth="1"/>
-    <col min="160" max="160" width="35.1640625" customWidth="1"/>
+    <col min="160" max="160" width="35.109375" customWidth="1"/>
     <col min="161" max="161" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="162" max="162" width="34.33203125" customWidth="1"/>
     <col min="163" max="163" width="32.6640625" customWidth="1"/>
@@ -999,26 +1008,26 @@
     <col min="165" max="165" width="38.33203125" customWidth="1"/>
     <col min="166" max="166" width="34.33203125" customWidth="1"/>
     <col min="167" max="167" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="43.1640625" customWidth="1"/>
+    <col min="168" max="168" width="43.109375" customWidth="1"/>
     <col min="169" max="169" width="38.33203125" customWidth="1"/>
     <col min="170" max="170" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="28.5" customWidth="1"/>
-    <col min="172" max="172" width="43.1640625" customWidth="1"/>
+    <col min="171" max="171" width="28.44140625" customWidth="1"/>
+    <col min="172" max="172" width="43.109375" customWidth="1"/>
     <col min="173" max="173" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="24.5" customWidth="1"/>
-    <col min="175" max="175" width="28.5" customWidth="1"/>
+    <col min="174" max="174" width="24.44140625" customWidth="1"/>
+    <col min="175" max="175" width="28.44140625" customWidth="1"/>
     <col min="176" max="176" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="26.1640625" customWidth="1"/>
-    <col min="178" max="178" width="24.5" customWidth="1"/>
+    <col min="177" max="177" width="26.109375" customWidth="1"/>
+    <col min="178" max="178" width="24.44140625" customWidth="1"/>
     <col min="179" max="179" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="180" max="180" width="30.6640625" customWidth="1"/>
-    <col min="181" max="181" width="26.1640625" customWidth="1"/>
+    <col min="181" max="181" width="26.109375" customWidth="1"/>
     <col min="182" max="182" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="26.5" customWidth="1"/>
+    <col min="183" max="183" width="26.44140625" customWidth="1"/>
     <col min="184" max="184" width="30.6640625" customWidth="1"/>
     <col min="185" max="185" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="186" max="186" width="32.6640625" customWidth="1"/>
-    <col min="187" max="187" width="26.5" customWidth="1"/>
+    <col min="187" max="187" width="26.44140625" customWidth="1"/>
     <col min="188" max="188" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="189" max="189" width="31" customWidth="1"/>
     <col min="190" max="190" width="32.6640625" customWidth="1"/>
@@ -1084,178 +1093,178 @@
     <col min="251" max="251" width="29" customWidth="1"/>
     <col min="252" max="252" width="30.6640625" customWidth="1"/>
     <col min="253" max="253" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="35.1640625" customWidth="1"/>
+    <col min="254" max="254" width="35.109375" customWidth="1"/>
     <col min="255" max="255" width="32.6640625" customWidth="1"/>
     <col min="256" max="256" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="257" max="257" width="32.6640625" customWidth="1"/>
-    <col min="258" max="258" width="34.1640625" customWidth="1"/>
+    <col min="258" max="258" width="34.109375" customWidth="1"/>
     <col min="259" max="259" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="260" max="260" width="34.33203125" customWidth="1"/>
-    <col min="261" max="261" width="31.5" customWidth="1"/>
+    <col min="261" max="261" width="31.44140625" customWidth="1"/>
     <col min="262" max="262" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="263" max="263" width="38.33203125" customWidth="1"/>
     <col min="264" max="264" width="36.33203125" customWidth="1"/>
     <col min="265" max="265" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="43.1640625" customWidth="1"/>
-    <col min="267" max="267" width="34.83203125" customWidth="1"/>
+    <col min="266" max="266" width="43.109375" customWidth="1"/>
+    <col min="267" max="267" width="34.77734375" customWidth="1"/>
     <col min="268" max="268" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="28.5" customWidth="1"/>
-    <col min="270" max="270" width="33.83203125" customWidth="1"/>
+    <col min="269" max="269" width="28.44140625" customWidth="1"/>
+    <col min="270" max="270" width="33.77734375" customWidth="1"/>
     <col min="271" max="271" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="272" max="272" width="24.5" customWidth="1"/>
+    <col min="272" max="272" width="24.44140625" customWidth="1"/>
     <col min="273" max="273" width="29" customWidth="1"/>
     <col min="274" max="274" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="26.1640625" customWidth="1"/>
-    <col min="276" max="276" width="35.1640625" customWidth="1"/>
+    <col min="275" max="275" width="26.109375" customWidth="1"/>
+    <col min="276" max="276" width="35.109375" customWidth="1"/>
     <col min="277" max="277" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="278" max="278" width="30.6640625" customWidth="1"/>
     <col min="279" max="279" width="32.6640625" customWidth="1"/>
     <col min="280" max="280" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="281" max="281" width="26.5" customWidth="1"/>
+    <col min="281" max="281" width="26.44140625" customWidth="1"/>
     <col min="282" max="282" width="34.33203125" customWidth="1"/>
     <col min="283" max="283" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="284" max="284" width="32.6640625" customWidth="1"/>
     <col min="285" max="285" width="38.33203125" customWidth="1"/>
     <col min="286" max="286" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="287" max="287" width="31" customWidth="1"/>
-    <col min="288" max="288" width="43.1640625" customWidth="1"/>
+    <col min="288" max="288" width="43.109375" customWidth="1"/>
     <col min="289" max="289" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="290" max="290" width="38" customWidth="1"/>
-    <col min="291" max="291" width="28.5" customWidth="1"/>
+    <col min="291" max="291" width="28.44140625" customWidth="1"/>
     <col min="292" max="292" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="293" max="293" width="54.33203125" customWidth="1"/>
-    <col min="294" max="294" width="24.5" customWidth="1"/>
+    <col min="294" max="294" width="24.44140625" customWidth="1"/>
     <col min="295" max="295" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="296" max="296" width="23.1640625" customWidth="1"/>
-    <col min="297" max="297" width="26.1640625" customWidth="1"/>
+    <col min="296" max="296" width="23.109375" customWidth="1"/>
+    <col min="297" max="297" width="26.109375" customWidth="1"/>
     <col min="298" max="298" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="299" max="299" width="38.83203125" customWidth="1"/>
+    <col min="299" max="299" width="38.77734375" customWidth="1"/>
     <col min="300" max="300" width="30.6640625" customWidth="1"/>
     <col min="301" max="301" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="302" max="302" width="31" customWidth="1"/>
-    <col min="303" max="303" width="26.5" customWidth="1"/>
+    <col min="303" max="303" width="26.44140625" customWidth="1"/>
     <col min="304" max="304" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="305" max="305" width="31.5" customWidth="1"/>
+    <col min="305" max="305" width="31.44140625" customWidth="1"/>
     <col min="306" max="306" width="32.6640625" customWidth="1"/>
     <col min="307" max="307" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="308" max="308" width="32" customWidth="1"/>
     <col min="309" max="309" width="31" customWidth="1"/>
     <col min="310" max="310" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="311" max="311" width="29.83203125" customWidth="1"/>
+    <col min="311" max="311" width="29.77734375" customWidth="1"/>
     <col min="312" max="312" width="38" customWidth="1"/>
     <col min="313" max="313" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="314" max="314" width="30.33203125" customWidth="1"/>
     <col min="315" max="315" width="54.33203125" customWidth="1"/>
     <col min="316" max="316" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="317" max="317" width="30.6640625" customWidth="1"/>
-    <col min="318" max="318" width="23.1640625" customWidth="1"/>
+    <col min="318" max="318" width="23.109375" customWidth="1"/>
     <col min="319" max="319" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="320" max="320" width="33" customWidth="1"/>
-    <col min="321" max="321" width="38.83203125" customWidth="1"/>
+    <col min="321" max="321" width="38.77734375" customWidth="1"/>
     <col min="322" max="322" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="323" max="323" width="33.5" customWidth="1"/>
+    <col min="323" max="323" width="33.44140625" customWidth="1"/>
     <col min="324" max="324" width="31" customWidth="1"/>
     <col min="325" max="325" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="326" max="326" width="33.83203125" customWidth="1"/>
-    <col min="327" max="327" width="31.5" customWidth="1"/>
+    <col min="326" max="326" width="33.77734375" customWidth="1"/>
+    <col min="327" max="327" width="31.44140625" customWidth="1"/>
     <col min="328" max="328" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="329" max="329" width="30.5" customWidth="1"/>
+    <col min="329" max="329" width="30.44140625" customWidth="1"/>
     <col min="330" max="330" width="32" customWidth="1"/>
     <col min="331" max="331" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="332" max="332" width="31" customWidth="1"/>
-    <col min="333" max="333" width="29.83203125" customWidth="1"/>
+    <col min="333" max="333" width="29.77734375" customWidth="1"/>
     <col min="334" max="334" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="335" max="335" width="31.5" customWidth="1"/>
+    <col min="335" max="335" width="31.44140625" customWidth="1"/>
     <col min="336" max="336" width="30.33203125" customWidth="1"/>
     <col min="337" max="337" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="338" max="338" width="26.5" customWidth="1"/>
+    <col min="338" max="338" width="26.44140625" customWidth="1"/>
     <col min="339" max="339" width="30.6640625" customWidth="1"/>
     <col min="340" max="340" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="341" max="341" width="26.83203125" customWidth="1"/>
+    <col min="341" max="341" width="26.77734375" customWidth="1"/>
     <col min="342" max="342" width="33" customWidth="1"/>
     <col min="343" max="343" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="344" max="344" width="27.33203125" customWidth="1"/>
-    <col min="345" max="345" width="33.5" customWidth="1"/>
+    <col min="345" max="345" width="33.44140625" customWidth="1"/>
     <col min="346" max="346" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="347" max="347" width="32.83203125" customWidth="1"/>
-    <col min="348" max="348" width="33.83203125" customWidth="1"/>
+    <col min="347" max="347" width="32.77734375" customWidth="1"/>
+    <col min="348" max="348" width="33.77734375" customWidth="1"/>
     <col min="349" max="349" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="350" max="350" width="33.33203125" customWidth="1"/>
-    <col min="351" max="351" width="30.5" customWidth="1"/>
+    <col min="351" max="351" width="30.44140625" customWidth="1"/>
     <col min="352" max="352" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="353" max="353" width="33.6640625" customWidth="1"/>
     <col min="354" max="354" width="31" customWidth="1"/>
     <col min="355" max="355" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="356" max="356" width="25.5" customWidth="1"/>
-    <col min="357" max="357" width="31.5" customWidth="1"/>
+    <col min="356" max="356" width="25.44140625" customWidth="1"/>
+    <col min="357" max="357" width="31.44140625" customWidth="1"/>
     <col min="358" max="358" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="359" max="359" width="25.83203125" customWidth="1"/>
-    <col min="360" max="360" width="26.5" customWidth="1"/>
+    <col min="359" max="359" width="25.77734375" customWidth="1"/>
+    <col min="360" max="360" width="26.44140625" customWidth="1"/>
     <col min="361" max="361" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="362" max="362" width="26.33203125" customWidth="1"/>
-    <col min="363" max="363" width="26.83203125" customWidth="1"/>
+    <col min="363" max="363" width="26.77734375" customWidth="1"/>
     <col min="364" max="364" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="365" max="365" width="25.6640625" customWidth="1"/>
     <col min="366" max="366" width="27.33203125" customWidth="1"/>
     <col min="367" max="367" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="368" max="368" width="26.1640625" customWidth="1"/>
-    <col min="369" max="369" width="32.83203125" customWidth="1"/>
+    <col min="368" max="368" width="26.109375" customWidth="1"/>
+    <col min="369" max="369" width="32.77734375" customWidth="1"/>
     <col min="370" max="370" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="371" max="371" width="26.5" customWidth="1"/>
+    <col min="371" max="371" width="26.44140625" customWidth="1"/>
     <col min="372" max="372" width="33.33203125" customWidth="1"/>
     <col min="373" max="373" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="374" max="374" width="26.33203125" customWidth="1"/>
     <col min="375" max="375" width="33.6640625" customWidth="1"/>
     <col min="376" max="376" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="377" max="377" width="26.6640625" customWidth="1"/>
-    <col min="378" max="378" width="25.5" customWidth="1"/>
+    <col min="378" max="378" width="25.44140625" customWidth="1"/>
     <col min="379" max="379" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="380" max="380" width="27.1640625" customWidth="1"/>
-    <col min="381" max="381" width="25.83203125" customWidth="1"/>
+    <col min="380" max="380" width="27.109375" customWidth="1"/>
+    <col min="381" max="381" width="25.77734375" customWidth="1"/>
     <col min="382" max="382" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="383" max="383" width="25.33203125" customWidth="1"/>
     <col min="384" max="384" width="26.33203125" customWidth="1"/>
     <col min="385" max="385" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="386" max="387" width="25.6640625" customWidth="1"/>
     <col min="388" max="388" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="389" max="390" width="26.1640625" customWidth="1"/>
+    <col min="389" max="390" width="26.109375" customWidth="1"/>
     <col min="391" max="391" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="392" max="392" width="17.1640625" customWidth="1"/>
-    <col min="393" max="393" width="26.5" customWidth="1"/>
+    <col min="392" max="392" width="17.109375" customWidth="1"/>
+    <col min="393" max="393" width="26.44140625" customWidth="1"/>
     <col min="394" max="394" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="395" max="395" width="17.5" customWidth="1"/>
+    <col min="395" max="395" width="17.44140625" customWidth="1"/>
     <col min="396" max="396" width="26.33203125" customWidth="1"/>
     <col min="397" max="397" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="398" max="398" width="18" customWidth="1"/>
     <col min="399" max="399" width="26.6640625" customWidth="1"/>
     <col min="400" max="400" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="401" max="401" width="31" customWidth="1"/>
-    <col min="402" max="402" width="27.1640625" customWidth="1"/>
+    <col min="402" max="402" width="27.109375" customWidth="1"/>
     <col min="403" max="403" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="404" max="404" width="31.5" customWidth="1"/>
+    <col min="404" max="404" width="31.44140625" customWidth="1"/>
     <col min="405" max="405" width="25.33203125" customWidth="1"/>
     <col min="406" max="406" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="407" max="407" width="32" customWidth="1"/>
     <col min="408" max="408" width="25.6640625" customWidth="1"/>
     <col min="409" max="409" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="410" max="410" width="26.33203125" customWidth="1"/>
-    <col min="411" max="411" width="26.1640625" customWidth="1"/>
+    <col min="411" max="411" width="26.109375" customWidth="1"/>
     <col min="412" max="412" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="413" max="413" width="26.6640625" customWidth="1"/>
-    <col min="414" max="414" width="17.1640625" customWidth="1"/>
+    <col min="414" max="414" width="17.109375" customWidth="1"/>
     <col min="415" max="415" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="416" max="416" width="27.1640625" customWidth="1"/>
-    <col min="417" max="417" width="17.5" customWidth="1"/>
+    <col min="416" max="416" width="27.109375" customWidth="1"/>
+    <col min="417" max="417" width="17.44140625" customWidth="1"/>
     <col min="418" max="418" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="419" max="419" width="30.6640625" customWidth="1"/>
     <col min="420" max="420" width="18" customWidth="1"/>
     <col min="421" max="421" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="422" max="422" width="31.1640625" customWidth="1"/>
+    <col min="422" max="422" width="31.109375" customWidth="1"/>
     <col min="423" max="423" width="31" customWidth="1"/>
     <col min="424" max="424" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="425" max="426" width="31.5" customWidth="1"/>
+    <col min="425" max="426" width="31.44140625" customWidth="1"/>
     <col min="427" max="427" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="428" max="428" width="25.83203125" customWidth="1"/>
+    <col min="428" max="428" width="25.77734375" customWidth="1"/>
     <col min="429" max="429" width="32" customWidth="1"/>
     <col min="430" max="430" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="431" max="432" width="26.33203125" customWidth="1"/>
@@ -1263,70 +1272,70 @@
     <col min="434" max="435" width="26.6640625" customWidth="1"/>
     <col min="436" max="436" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="437" max="437" width="27" customWidth="1"/>
-    <col min="438" max="438" width="27.1640625" customWidth="1"/>
+    <col min="438" max="438" width="27.109375" customWidth="1"/>
     <col min="439" max="439" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="440" max="440" width="27.5" customWidth="1"/>
+    <col min="440" max="440" width="27.44140625" customWidth="1"/>
     <col min="441" max="441" width="30.6640625" customWidth="1"/>
     <col min="442" max="442" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="443" max="443" width="28" customWidth="1"/>
-    <col min="444" max="444" width="31.1640625" customWidth="1"/>
+    <col min="444" max="444" width="31.109375" customWidth="1"/>
     <col min="445" max="445" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="446" max="446" width="43.6640625" customWidth="1"/>
-    <col min="447" max="447" width="31.5" customWidth="1"/>
+    <col min="447" max="447" width="31.44140625" customWidth="1"/>
     <col min="448" max="448" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="449" max="449" width="44.1640625" customWidth="1"/>
-    <col min="450" max="450" width="25.83203125" customWidth="1"/>
+    <col min="449" max="449" width="44.109375" customWidth="1"/>
+    <col min="450" max="450" width="25.77734375" customWidth="1"/>
     <col min="451" max="451" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="452" max="452" width="44.6640625" customWidth="1"/>
     <col min="453" max="453" width="26.33203125" customWidth="1"/>
     <col min="454" max="454" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="455" max="455" width="24.5" customWidth="1"/>
+    <col min="455" max="455" width="24.44140625" customWidth="1"/>
     <col min="456" max="456" width="26.6640625" customWidth="1"/>
     <col min="457" max="457" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="458" max="458" width="24.83203125" customWidth="1"/>
+    <col min="458" max="458" width="24.77734375" customWidth="1"/>
     <col min="459" max="459" width="27" customWidth="1"/>
     <col min="460" max="460" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="461" max="461" width="25.33203125" customWidth="1"/>
-    <col min="462" max="462" width="27.5" customWidth="1"/>
+    <col min="462" max="462" width="27.44140625" customWidth="1"/>
     <col min="463" max="463" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="464" max="464" width="20.83203125" customWidth="1"/>
+    <col min="464" max="464" width="20.77734375" customWidth="1"/>
     <col min="465" max="465" width="28" customWidth="1"/>
     <col min="466" max="466" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="467" max="467" width="21.33203125" customWidth="1"/>
     <col min="468" max="468" width="43.6640625" customWidth="1"/>
     <col min="469" max="469" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="470" max="470" width="21.6640625" customWidth="1"/>
-    <col min="471" max="471" width="44.1640625" customWidth="1"/>
+    <col min="471" max="471" width="44.109375" customWidth="1"/>
     <col min="472" max="472" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="473" max="473" width="26" customWidth="1"/>
     <col min="474" max="474" width="44.6640625" customWidth="1"/>
     <col min="475" max="475" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="476" max="476" width="26.5" customWidth="1"/>
-    <col min="477" max="477" width="24.5" customWidth="1"/>
+    <col min="476" max="476" width="26.44140625" customWidth="1"/>
+    <col min="477" max="477" width="24.44140625" customWidth="1"/>
     <col min="478" max="478" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="479" max="479" width="26.83203125" customWidth="1"/>
-    <col min="480" max="480" width="24.83203125" customWidth="1"/>
+    <col min="479" max="479" width="26.77734375" customWidth="1"/>
+    <col min="480" max="480" width="24.77734375" customWidth="1"/>
     <col min="481" max="481" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="482" max="482" width="35.33203125" customWidth="1"/>
     <col min="483" max="483" width="25.33203125" customWidth="1"/>
     <col min="484" max="484" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="485" max="485" width="35.6640625" customWidth="1"/>
-    <col min="486" max="486" width="20.83203125" customWidth="1"/>
+    <col min="486" max="486" width="20.77734375" customWidth="1"/>
     <col min="487" max="487" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="488" max="488" width="36.33203125" customWidth="1"/>
     <col min="489" max="489" width="21.33203125" customWidth="1"/>
     <col min="490" max="490" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="491" max="491" width="31.1640625" customWidth="1"/>
+    <col min="491" max="491" width="31.109375" customWidth="1"/>
     <col min="492" max="492" width="21.6640625" customWidth="1"/>
     <col min="493" max="493" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="494" max="494" width="31.5" customWidth="1"/>
+    <col min="494" max="494" width="31.44140625" customWidth="1"/>
     <col min="495" max="495" width="26" customWidth="1"/>
     <col min="496" max="496" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="497" max="497" width="32.1640625" customWidth="1"/>
-    <col min="498" max="498" width="26.5" customWidth="1"/>
+    <col min="497" max="497" width="32.109375" customWidth="1"/>
+    <col min="498" max="498" width="26.44140625" customWidth="1"/>
     <col min="499" max="499" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="500" max="500" width="25.83203125" customWidth="1"/>
-    <col min="501" max="501" width="26.83203125" customWidth="1"/>
+    <col min="500" max="500" width="25.77734375" customWidth="1"/>
+    <col min="501" max="501" width="26.77734375" customWidth="1"/>
     <col min="502" max="502" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="503" max="503" width="26.33203125" customWidth="1"/>
     <col min="504" max="504" width="35.33203125" customWidth="1"/>
@@ -1337,45 +1346,45 @@
     <col min="509" max="509" width="20" customWidth="1"/>
     <col min="510" max="510" width="36.33203125" customWidth="1"/>
     <col min="511" max="511" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="512" max="512" width="20.5" customWidth="1"/>
-    <col min="513" max="513" width="31.1640625" customWidth="1"/>
+    <col min="512" max="512" width="20.44140625" customWidth="1"/>
+    <col min="513" max="513" width="31.109375" customWidth="1"/>
     <col min="514" max="514" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="20.83203125" customWidth="1"/>
-    <col min="516" max="516" width="31.5" customWidth="1"/>
+    <col min="515" max="515" width="20.77734375" customWidth="1"/>
+    <col min="516" max="516" width="31.44140625" customWidth="1"/>
     <col min="517" max="517" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="518" max="518" width="28" customWidth="1"/>
-    <col min="519" max="519" width="32.1640625" customWidth="1"/>
+    <col min="519" max="519" width="32.109375" customWidth="1"/>
     <col min="520" max="520" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="28.5" customWidth="1"/>
-    <col min="522" max="522" width="25.83203125" customWidth="1"/>
+    <col min="521" max="521" width="28.44140625" customWidth="1"/>
+    <col min="522" max="522" width="25.77734375" customWidth="1"/>
     <col min="523" max="523" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="524" max="524" width="15.6640625" customWidth="1"/>
     <col min="525" max="525" width="26.33203125" customWidth="1"/>
     <col min="526" max="526" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="527" max="527" width="8.83203125" customWidth="1"/>
+    <col min="527" max="527" width="8.77734375" customWidth="1"/>
     <col min="528" max="528" width="26.6640625" customWidth="1"/>
     <col min="529" max="529" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="530" max="530" width="8.83203125" customWidth="1"/>
+    <col min="530" max="530" width="8.77734375" customWidth="1"/>
     <col min="531" max="531" width="20" customWidth="1"/>
     <col min="532" max="532" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="533" max="533" width="8.83203125" customWidth="1"/>
-    <col min="534" max="534" width="20.5" customWidth="1"/>
+    <col min="533" max="533" width="8.77734375" customWidth="1"/>
+    <col min="534" max="534" width="20.44140625" customWidth="1"/>
     <col min="535" max="535" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="536" max="536" width="8.83203125" customWidth="1"/>
-    <col min="537" max="537" width="20.83203125" customWidth="1"/>
+    <col min="536" max="536" width="8.77734375" customWidth="1"/>
+    <col min="537" max="537" width="20.77734375" customWidth="1"/>
     <col min="538" max="538" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="539" max="539" width="8.83203125" customWidth="1"/>
+    <col min="539" max="539" width="8.77734375" customWidth="1"/>
     <col min="540" max="540" width="28" customWidth="1"/>
     <col min="541" max="541" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="542" max="542" width="8.83203125" customWidth="1"/>
-    <col min="543" max="543" width="28.5" customWidth="1"/>
+    <col min="542" max="542" width="8.77734375" customWidth="1"/>
+    <col min="543" max="543" width="28.44140625" customWidth="1"/>
     <col min="544" max="544" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="545" max="545" width="8.83203125" customWidth="1"/>
+    <col min="545" max="545" width="8.77734375" customWidth="1"/>
     <col min="546" max="546" width="15.6640625" customWidth="1"/>
     <col min="547" max="547" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1446,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1481,17 +1490,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD97CC03-77C1-4F03-828F-E9E924434399}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -1499,7 +1508,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
@@ -1507,7 +1516,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
@@ -1515,7 +1524,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -1523,7 +1532,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
@@ -1531,7 +1540,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
@@ -1539,157 +1548,163 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
         <v>61</v>
-      </c>
-      <c r="C12" t="s">
-        <v>62</v>
       </c>
       <c r="D12" t="s">
         <v>56</v>
       </c>
       <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
         <v>57</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>58</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>59</v>
       </c>
-      <c r="H12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E13" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E14" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>49</v>
       </c>

--- a/templates/community/TRR341_Phenotyping/Study_Characteristics_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Characteristics_TRR341_MIAPPE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\TRR341_Phenotyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA0658A-1AFE-40A6-AC6E-65575CC9CF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E017ED0-A56E-4D64-8434-0664A29C8DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="811" activeTab="1" xr2:uid="{424F8DC5-9123-44F6-A765-1A524B13497E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Source Name</t>
   </si>
@@ -205,15 +205,9 @@
     <t>annotationTableSilentOwl62</t>
   </si>
   <si>
-    <t xml:space="preserve">phenotyping </t>
-  </si>
-  <si>
     <t xml:space="preserve"> metadata </t>
   </si>
   <si>
-    <t xml:space="preserve">study </t>
-  </si>
-  <si>
     <t>MIAPPE</t>
   </si>
   <si>
@@ -241,10 +235,19 @@
     <t>Plant</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C14258</t>
-  </si>
-  <si>
-    <t>NCIT</t>
+    <t>NCIT:C14258</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>NCIT:C63536</t>
+  </si>
+  <si>
+    <t>phenotyping</t>
+  </si>
+  <si>
+    <t>DPBO:1000224</t>
   </si>
 </sst>
 </file>
@@ -1491,7 +1494,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1583,33 +1586,39 @@
         <v>34</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
         <v>56</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>67</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>57</v>
       </c>
-      <c r="G12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="3"/>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
       <c r="E13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1618,9 +1627,7 @@
         <v>36</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="E14" s="12" t="s">
-        <v>69</v>
-      </c>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -1633,7 +1640,7 @@
         <v>38</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1641,7 +1648,7 @@
         <v>39</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1655,7 +1662,7 @@
         <v>41</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1681,7 +1688,7 @@
         <v>45</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1695,7 +1702,7 @@
         <v>47</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">

--- a/templates/community/TRR341_Phenotyping/Study_Characteristics_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Characteristics_TRR341_MIAPPE.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\TRR341_Phenotyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E017ED0-A56E-4D64-8434-0664A29C8DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFAAACA-C706-47C5-9EA0-A353140CA91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="811" activeTab="1" xr2:uid="{424F8DC5-9123-44F6-A765-1A524B13497E}"/>
   </bookViews>
   <sheets>
     <sheet name="Characteristics" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/templates/community/TRR341_Phenotyping/Study_Characteristics_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Characteristics_TRR341_MIAPPE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\TRR341_Phenotyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFAAACA-C706-47C5-9EA0-A353140CA91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376F26EB-23FB-4B17-B5D7-FAB00C94AF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="811" activeTab="1" xr2:uid="{424F8DC5-9123-44F6-A765-1A524B13497E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Source Name</t>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>DPBO:1000224</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C52095</t>
+  </si>
+  <si>
+    <t>NCIT</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1500,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1618,6 +1624,9 @@
       <c r="E13" s="12" t="s">
         <v>66</v>
       </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
       <c r="G13" t="s">
         <v>68</v>
       </c>
@@ -1628,6 +1637,9 @@
       </c>
       <c r="B14" s="3"/>
       <c r="E14" s="12"/>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">

--- a/templates/community/TRR341_Phenotyping/Study_Characteristics_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Characteristics_TRR341_MIAPPE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\TRR341_Phenotyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376F26EB-23FB-4B17-B5D7-FAB00C94AF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246035A2-71B9-4905-9C3C-6A50E29414DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="811" activeTab="1" xr2:uid="{424F8DC5-9123-44F6-A765-1A524B13497E}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="811" activeTab="1" xr2:uid="{424F8DC5-9123-44F6-A765-1A524B13497E}"/>
   </bookViews>
   <sheets>
     <sheet name="Characteristics" sheetId="1" r:id="rId1"/>
@@ -205,9 +205,6 @@
     <t>annotationTableSilentOwl62</t>
   </si>
   <si>
-    <t xml:space="preserve"> metadata </t>
-  </si>
-  <si>
     <t>MIAPPE</t>
   </si>
   <si>
@@ -254,6 +251,9 @@
   </si>
   <si>
     <t>NCIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metadata </t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -436,6 +436,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1500,13 +1501,14 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="38.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -1592,25 +1594,25 @@
         <v>34</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
         <v>58</v>
       </c>
-      <c r="C12" t="s">
-        <v>59</v>
-      </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" t="s">
         <v>56</v>
-      </c>
-      <c r="G12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1619,16 +1621,16 @@
       </c>
       <c r="B13" s="3"/>
       <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" t="s">
-        <v>71</v>
-      </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1638,7 +1640,7 @@
       <c r="B14" s="3"/>
       <c r="E14" s="12"/>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1652,7 +1654,7 @@
         <v>38</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1660,7 +1662,7 @@
         <v>39</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1674,7 +1676,7 @@
         <v>41</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1700,7 +1702,7 @@
         <v>45</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1714,7 +1716,7 @@
         <v>47</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1732,6 +1734,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B19" r:id="rId1" xr:uid="{1CC4ED06-5138-444D-BAF3-755451FB1144}"/>
+    <hyperlink ref="F13" r:id="rId2" xr:uid="{C96EC7FC-AE5C-4AAA-B859-B2BE35B462F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
